--- a/tests/data/test-names.xlsx
+++ b/tests/data/test-names.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">nameid</t>
   </si>
@@ -31,13 +31,16 @@
     <t xml:space="preserve">language</t>
   </si>
   <si>
+    <t xml:space="preserve">attested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">romanized</t>
+  </si>
+  <si>
     <t xml:space="preserve">summary</t>
   </si>
   <si>
-    <t xml:space="preserve">attested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">romanized</t>
+    <t xml:space="preserve">periods</t>
   </si>
   <si>
     <t xml:space="preserve">association_certainty</t>
@@ -304,10 +307,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="1:2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -315,16 +318,17 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.131455399061"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.23004694835681"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.18779342723"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.5399061032864"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.35680751173709"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.7276995305164"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.7981220657277"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.4366197183099"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.093896713615"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.9483568075117"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.94366197183099"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.45070422535211"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="10.8544600938967"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.35680751173709"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.7276995305164"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.5399061032864"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.35680751173709"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.7981220657277"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.4366197183099"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.093896713615"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="27.9483568075117"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.94366197183099"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="5.45070422535211"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.8544600938967"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -337,13 +341,13 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -358,7 +362,7 @@
       <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -370,22 +374,27 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>383664</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>17</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
